--- a/biology/Botanique/Disperis/Disperis.xlsx
+++ b/biology/Botanique/Disperis/Disperis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Disperis est un genre de plantes de la famille des Orchidaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des variétés, sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (6 août 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (6 août 2017) :
 Disperis ankarensis H.Perrier
 Disperis anthoceros Rchb.f.
 Disperis aphylla Kraenzl. ex De Wild. &amp; T.Durand
@@ -618,7 +634,7 @@
 Disperis virginalis Schltr.
 Disperis wealei Rchb.f.
 Disperis woodii Bolus
-Selon Catalogue of Life                                   (6 août 2017)[3] :
+Selon Catalogue of Life                                   (6 août 2017) :
 Disperis ankarensis H.Perrier
 Disperis anthoceros Rchb.f.
 Disperis aphylla Kraenzl. ex De Wild. &amp; T.Durand
@@ -697,7 +713,7 @@
 Disperis virginalis Schltr.
 Disperis wealei Rchb.f.
 Disperis woodii Bolus
-Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2017)[4] :
+Selon World Checklist of Selected Plant Families (WCSP)  (6 août 2017) :
 Disperis ankarensis H.Perrier (1939)
 Disperis anthoceros Rchb.f. (1881)
 variété Disperis anthoceros var. anthoceros
@@ -797,7 +813,7 @@
 Disperis virginalis Schltr. (1897)
 Disperis wealei Rchb.f. (1881)
 Disperis woodii Bolus, J. Linn. Soc. (1885)
-Selon NCBI  (6 août 2017)[5] :
+Selon NCBI  (6 août 2017) :
 Disperis anthoceros
 Disperis bodkinii
 Disperis bolusiana
@@ -829,7 +845,7 @@
 Disperis tysonii
 Disperis villosa
 Disperis wealei
-Selon The Plant List            (6 août 2017)[6] :
+Selon The Plant List            (6 août 2017) :
 Disperis ankarensis H.Perrier
 Disperis anthoceros Rchb.f.
 Disperis aphylla Kraenzl. ex De Wild. &amp; T.Durand
@@ -909,7 +925,7 @@
 Disperis virginalis Schltr.
 Disperis wealei Rchb.f.
 Disperis woodii Bolus
-Selon Tropicos                                           (6 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Disperis afzelii Schltr.
 Disperis alata Labill.
 Disperis allisonii Rolfe
